--- a/medicine/Psychotrope/Bordeaux-clairet/Bordeaux-clairet.xlsx
+++ b/medicine/Psychotrope/Bordeaux-clairet/Bordeaux-clairet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bordeaux-clairet est un vin dont l'aire de production s'étend sur l'ensemble du vignoble de Bordeaux. Il s'agit d'une mention traditionnelle au sein de l'appellation d'origine contrôlée bordeaux ; cette mention « clairet » (pour les vins rosés foncés) ou « claret » (pour les vins rouges) est indiquée en complément du nom de l'appellation[1].
-Les vins de l'appellation bordeaux-clairet sont les vins les plus proches des vins qui étaient expédiés en Angleterre pendant le Moyen Âge (French claret ou vinum clarum) et qui ont fait la fortune de Bordeaux à cette époque, tous les cépages étant alors mélangés dans la même cuve[2]. Ce sont des vins d'une couleur rouge légère, entre la couleur d'un bordeaux et celle d'un rosé. Ce sont des vins rafraîchissants, appréciés en été, pour un pique-nique ou avec des cuisines exotiques. Cette dénomination est régie par les normes qualitatives de l'INAO.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bordeaux-clairet est un vin dont l'aire de production s'étend sur l'ensemble du vignoble de Bordeaux. Il s'agit d'une mention traditionnelle au sein de l'appellation d'origine contrôlée bordeaux ; cette mention « clairet » (pour les vins rosés foncés) ou « claret » (pour les vins rouges) est indiquée en complément du nom de l'appellation.
+Les vins de l'appellation bordeaux-clairet sont les vins les plus proches des vins qui étaient expédiés en Angleterre pendant le Moyen Âge (French claret ou vinum clarum) et qui ont fait la fortune de Bordeaux à cette époque, tous les cépages étant alors mélangés dans la même cuve. Ce sont des vins d'une couleur rouge légère, entre la couleur d'un bordeaux et celle d'un rosé. Ce sont des vins rafraîchissants, appréciés en été, pour un pique-nique ou avec des cuisines exotiques. Cette dénomination est régie par les normes qualitatives de l'INAO.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Production et superficie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Production annuelle : 40 710 hectolitres en 2009[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Production annuelle : 40 710 hectolitres en 2009.
 Surface : 700 hectares.
-Rendement maximal autorisé : 62 hectolitres par hectare (72 hℓ/ha pour le rendement butoir)[1], comme pour tous les vins rosés de Bordeaux.
-La commune de Quinsac sur la rive droite de la Garonne se qualifie de « capitale du clairet »[4].
+Rendement maximal autorisé : 62 hectolitres par hectare (72 hℓ/ha pour le rendement butoir), comme pour tous les vins rosés de Bordeaux.
+La commune de Quinsac sur la rive droite de la Garonne se qualifie de « capitale du clairet ».
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les cépages autorisés pour faire le clairet sont tous ceux autorisés pour faire les vins rouge et rosé d'appellation bordeaux[1] :
-cabernet sauvignon N[5] ;
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les cépages autorisés pour faire le clairet sont tous ceux autorisés pour faire les vins rouge et rosé d'appellation bordeaux :
+cabernet sauvignon N ;
 cabernet franc N ;
 merlot N (dans la pratique, c'est le plus utilisé) ;
 malbec N (ou côt) ;
